--- a/data/analysis/social_media_analytics/pivot_tables/region/museum_activity_groups__var1-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/region/museum_activity_groups__var1-region.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -461,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -499,105 +502,159 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1982</v>
+        <v>1479</v>
       </c>
       <c r="C4">
-        <v>82.59999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="D4">
-        <v>337.3</v>
+        <v>245.9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -612,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>495.5</v>
+        <v>369.8</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -630,13 +687,13 @@
         <v>-2.6</v>
       </c>
       <c r="O4">
-        <v>842</v>
+        <v>500</v>
       </c>
       <c r="P4">
-        <v>35.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q4">
-        <v>132.4</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -651,36 +708,75 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="W4">
         <v>24</v>
       </c>
       <c r="X4">
+        <v>125</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>16.7</v>
+      </c>
+      <c r="AA4">
+        <v>-2.6</v>
+      </c>
+      <c r="AB4">
+        <v>842</v>
+      </c>
+      <c r="AC4">
+        <v>35.1</v>
+      </c>
+      <c r="AD4">
+        <v>132.4</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>619</v>
+      </c>
+      <c r="AJ4">
+        <v>24</v>
+      </c>
+      <c r="AK4">
         <v>421</v>
       </c>
-      <c r="Y4">
+      <c r="AL4">
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>8.300000000000001</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>260251</v>
+        <v>126365</v>
       </c>
       <c r="C5">
-        <v>1136.5</v>
+        <v>551.8</v>
       </c>
       <c r="D5">
-        <v>3072</v>
+        <v>1514.3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -689,37 +785,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>744</v>
+        <v>537</v>
       </c>
       <c r="I5">
-        <v>25152</v>
+        <v>17279</v>
       </c>
       <c r="J5">
         <v>229</v>
       </c>
       <c r="K5">
-        <v>1770.4</v>
+        <v>936</v>
       </c>
       <c r="L5">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M5">
-        <v>64.2</v>
+        <v>59</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O5">
-        <v>65524</v>
+        <v>40292</v>
       </c>
       <c r="P5">
-        <v>286.1</v>
+        <v>175.9</v>
       </c>
       <c r="Q5">
-        <v>549.1</v>
+        <v>640.3</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -728,42 +824,81 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U5">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="V5">
-        <v>3252</v>
+        <v>7809</v>
       </c>
       <c r="W5">
         <v>229</v>
       </c>
       <c r="X5">
-        <v>780</v>
+        <v>294.1</v>
       </c>
       <c r="Y5">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="Z5">
-        <v>36.7</v>
+        <v>59.8</v>
       </c>
       <c r="AA5">
         <v>0.2</v>
       </c>
+      <c r="AB5">
+        <v>65524</v>
+      </c>
+      <c r="AC5">
+        <v>286.1</v>
+      </c>
+      <c r="AD5">
+        <v>549.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>368</v>
+      </c>
+      <c r="AI5">
+        <v>3252</v>
+      </c>
+      <c r="AJ5">
+        <v>229</v>
+      </c>
+      <c r="AK5">
+        <v>780</v>
+      </c>
+      <c r="AL5">
+        <v>84</v>
+      </c>
+      <c r="AM5">
+        <v>36.7</v>
+      </c>
+      <c r="AN5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>431069</v>
+        <v>193341</v>
       </c>
       <c r="C6">
-        <v>1298.4</v>
+        <v>582.4</v>
       </c>
       <c r="D6">
-        <v>3733.3</v>
+        <v>1260.9</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -772,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>911</v>
+        <v>586.8</v>
       </c>
       <c r="I6">
-        <v>40453</v>
+        <v>14162</v>
       </c>
       <c r="J6">
         <v>332</v>
       </c>
       <c r="K6">
-        <v>1933</v>
+        <v>938.5</v>
       </c>
       <c r="L6">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M6">
-        <v>67.2</v>
+        <v>62</v>
       </c>
       <c r="N6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
-        <v>69764</v>
+        <v>58132</v>
       </c>
       <c r="P6">
-        <v>210.1</v>
+        <v>175.1</v>
       </c>
       <c r="Q6">
-        <v>542.5</v>
+        <v>562.3</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -811,42 +946,81 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U6">
-        <v>118.5</v>
+        <v>92.2</v>
       </c>
       <c r="V6">
-        <v>6335</v>
+        <v>6662</v>
       </c>
       <c r="W6">
         <v>332</v>
       </c>
       <c r="X6">
+        <v>280.8</v>
+      </c>
+      <c r="Y6">
+        <v>207</v>
+      </c>
+      <c r="Z6">
+        <v>62.3</v>
+      </c>
+      <c r="AA6">
+        <v>0.4</v>
+      </c>
+      <c r="AB6">
+        <v>69764</v>
+      </c>
+      <c r="AC6">
+        <v>210.1</v>
+      </c>
+      <c r="AD6">
+        <v>542.5</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>118.5</v>
+      </c>
+      <c r="AI6">
+        <v>6335</v>
+      </c>
+      <c r="AJ6">
+        <v>332</v>
+      </c>
+      <c r="AK6">
         <v>734.4</v>
       </c>
-      <c r="Y6">
+      <c r="AL6">
         <v>95</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>28.6</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>72980</v>
+        <v>50940</v>
       </c>
       <c r="C7">
-        <v>4865.3</v>
+        <v>3396</v>
       </c>
       <c r="D7">
-        <v>17694.4</v>
+        <v>12233.9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -858,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="I7">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
       <c r="K7">
-        <v>14596</v>
+        <v>10188</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -876,16 +1050,16 @@
         <v>33.3</v>
       </c>
       <c r="N7">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="O7">
-        <v>675</v>
+        <v>21724</v>
       </c>
       <c r="P7">
-        <v>45</v>
+        <v>1448.3</v>
       </c>
       <c r="Q7">
-        <v>174.3</v>
+        <v>5378.6</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -897,78 +1071,117 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>675</v>
+        <v>20884</v>
       </c>
       <c r="W7">
         <v>15</v>
       </c>
       <c r="X7">
+        <v>4344.8</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>33.3</v>
+      </c>
+      <c r="AA7">
+        <v>-1.5</v>
+      </c>
+      <c r="AB7">
         <v>675</v>
       </c>
-      <c r="Y7">
+      <c r="AC7">
+        <v>45</v>
+      </c>
+      <c r="AD7">
+        <v>174.3</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>675</v>
+      </c>
+      <c r="AJ7">
+        <v>15</v>
+      </c>
+      <c r="AK7">
+        <v>675</v>
+      </c>
+      <c r="AL7">
         <v>1</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>6.7</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>800798</v>
+        <v>325019</v>
       </c>
       <c r="C8">
-        <v>3364.7</v>
+        <v>1365.6</v>
       </c>
       <c r="D8">
-        <v>5994.7</v>
+        <v>2387.7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1176</v>
+        <v>630</v>
       </c>
       <c r="H8">
-        <v>3149.2</v>
+        <v>1702</v>
       </c>
       <c r="I8">
-        <v>38400</v>
+        <v>19900</v>
       </c>
       <c r="J8">
         <v>238</v>
       </c>
       <c r="K8">
-        <v>4085.7</v>
+        <v>1857.3</v>
       </c>
       <c r="L8">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="M8">
-        <v>82.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="N8">
         <v>1.2</v>
       </c>
       <c r="O8">
-        <v>115657</v>
+        <v>197334</v>
       </c>
       <c r="P8">
-        <v>486</v>
+        <v>829.1</v>
       </c>
       <c r="Q8">
-        <v>1013.1</v>
+        <v>2385.6</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -977,42 +1190,81 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="U8">
-        <v>719.5</v>
+        <v>435</v>
       </c>
       <c r="V8">
-        <v>8880</v>
+        <v>20111</v>
       </c>
       <c r="W8">
         <v>238</v>
       </c>
       <c r="X8">
+        <v>1114.9</v>
+      </c>
+      <c r="Y8">
+        <v>177</v>
+      </c>
+      <c r="Z8">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>1.2</v>
+      </c>
+      <c r="AB8">
+        <v>115657</v>
+      </c>
+      <c r="AC8">
+        <v>486</v>
+      </c>
+      <c r="AD8">
+        <v>1013.1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>719.5</v>
+      </c>
+      <c r="AI8">
+        <v>8880</v>
+      </c>
+      <c r="AJ8">
+        <v>238</v>
+      </c>
+      <c r="AK8">
         <v>997</v>
       </c>
-      <c r="Y8">
+      <c r="AL8">
         <v>116</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>48.7</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>1.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>236618</v>
+        <v>69192</v>
       </c>
       <c r="C9">
-        <v>2253.5</v>
+        <v>659</v>
       </c>
       <c r="D9">
-        <v>7937.4</v>
+        <v>1096.4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1021,37 +1273,37 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>392</v>
+        <v>235</v>
       </c>
       <c r="H9">
-        <v>1587</v>
+        <v>944</v>
       </c>
       <c r="I9">
-        <v>74441</v>
+        <v>7613</v>
       </c>
       <c r="J9">
         <v>105</v>
       </c>
       <c r="K9">
-        <v>3154.9</v>
+        <v>1032.7</v>
       </c>
       <c r="L9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>71.40000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="N9">
         <v>0.6</v>
       </c>
       <c r="O9">
-        <v>35437</v>
+        <v>21116</v>
       </c>
       <c r="P9">
-        <v>337.5</v>
+        <v>201.1</v>
       </c>
       <c r="Q9">
-        <v>490.2</v>
+        <v>387.2</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1060,81 +1312,120 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U9">
-        <v>586</v>
+        <v>227</v>
       </c>
       <c r="V9">
-        <v>1774</v>
+        <v>1866</v>
       </c>
       <c r="W9">
         <v>105</v>
       </c>
       <c r="X9">
+        <v>301.7</v>
+      </c>
+      <c r="Y9">
+        <v>70</v>
+      </c>
+      <c r="Z9">
+        <v>66.7</v>
+      </c>
+      <c r="AA9">
+        <v>0.7</v>
+      </c>
+      <c r="AB9">
+        <v>35437</v>
+      </c>
+      <c r="AC9">
+        <v>337.5</v>
+      </c>
+      <c r="AD9">
+        <v>490.2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>586</v>
+      </c>
+      <c r="AI9">
+        <v>1774</v>
+      </c>
+      <c r="AJ9">
+        <v>105</v>
+      </c>
+      <c r="AK9">
         <v>754</v>
       </c>
-      <c r="Y9">
+      <c r="AL9">
         <v>47</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>44.8</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>480830</v>
+        <v>208808</v>
       </c>
       <c r="C10">
-        <v>1946.7</v>
+        <v>845.4</v>
       </c>
       <c r="D10">
-        <v>4416.5</v>
+        <v>1527.9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="H10">
-        <v>1842</v>
+        <v>1065</v>
       </c>
       <c r="I10">
-        <v>47158</v>
+        <v>14101</v>
       </c>
       <c r="J10">
         <v>247</v>
       </c>
       <c r="K10">
-        <v>2585.1</v>
+        <v>1288.9</v>
       </c>
       <c r="L10">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="M10">
-        <v>75.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="N10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
-        <v>135627</v>
+        <v>80602</v>
       </c>
       <c r="P10">
-        <v>549.1</v>
+        <v>326.3</v>
       </c>
       <c r="Q10">
-        <v>1495.7</v>
+        <v>1341.4</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1143,42 +1434,81 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U10">
-        <v>703</v>
+        <v>260.5</v>
       </c>
       <c r="V10">
-        <v>20246</v>
+        <v>19557</v>
       </c>
       <c r="W10">
         <v>247</v>
       </c>
       <c r="X10">
+        <v>476.9</v>
+      </c>
+      <c r="Y10">
+        <v>169</v>
+      </c>
+      <c r="Z10">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <v>135627</v>
+      </c>
+      <c r="AC10">
+        <v>549.1</v>
+      </c>
+      <c r="AD10">
+        <v>1495.7</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>79</v>
+      </c>
+      <c r="AH10">
+        <v>703</v>
+      </c>
+      <c r="AI10">
+        <v>20246</v>
+      </c>
+      <c r="AJ10">
+        <v>247</v>
+      </c>
+      <c r="AK10">
         <v>1027.5</v>
       </c>
-      <c r="Y10">
+      <c r="AL10">
         <v>132</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>53.4</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>181666</v>
+        <v>51766</v>
       </c>
       <c r="C11">
-        <v>1932.6</v>
+        <v>550.7</v>
       </c>
       <c r="D11">
-        <v>5038.8</v>
+        <v>1742.2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1187,37 +1517,37 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1033.5</v>
+        <v>525.2</v>
       </c>
       <c r="I11">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="J11">
         <v>94</v>
       </c>
       <c r="K11">
-        <v>3303</v>
+        <v>1150.4</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>58.5</v>
+        <v>47.9</v>
       </c>
       <c r="N11">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O11">
-        <v>46688</v>
+        <v>18156</v>
       </c>
       <c r="P11">
-        <v>496.7</v>
+        <v>193.1</v>
       </c>
       <c r="Q11">
-        <v>1384.1</v>
+        <v>1081.3</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1229,39 +1559,78 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>534.8</v>
+        <v>64.8</v>
       </c>
       <c r="V11">
-        <v>7664</v>
+        <v>10421</v>
       </c>
       <c r="W11">
         <v>94</v>
       </c>
       <c r="X11">
+        <v>422.2</v>
+      </c>
+      <c r="Y11">
+        <v>43</v>
+      </c>
+      <c r="Z11">
+        <v>45.7</v>
+      </c>
+      <c r="AA11">
+        <v>-0.7</v>
+      </c>
+      <c r="AB11">
+        <v>46688</v>
+      </c>
+      <c r="AC11">
+        <v>496.7</v>
+      </c>
+      <c r="AD11">
+        <v>1384.1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>534.8</v>
+      </c>
+      <c r="AI11">
+        <v>7664</v>
+      </c>
+      <c r="AJ11">
+        <v>94</v>
+      </c>
+      <c r="AK11">
         <v>1506.1</v>
       </c>
-      <c r="Y11">
+      <c r="AL11">
         <v>31</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>33</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>645145</v>
+        <v>315541</v>
       </c>
       <c r="C12">
-        <v>1306</v>
+        <v>638.7</v>
       </c>
       <c r="D12">
-        <v>4789.6</v>
+        <v>2445.9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1270,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
-        <v>862</v>
+        <v>543.2</v>
       </c>
       <c r="I12">
-        <v>68140</v>
+        <v>47580</v>
       </c>
       <c r="J12">
         <v>494</v>
       </c>
       <c r="K12">
-        <v>2312.3</v>
+        <v>1247.2</v>
       </c>
       <c r="L12">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="M12">
-        <v>56.5</v>
+        <v>51.2</v>
       </c>
       <c r="N12">
         <v>-0.3</v>
       </c>
       <c r="O12">
-        <v>160903</v>
+        <v>101125</v>
       </c>
       <c r="P12">
-        <v>325.7</v>
+        <v>204.7</v>
       </c>
       <c r="Q12">
-        <v>1766.4</v>
+        <v>868.9</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1309,42 +1678,81 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>126.5</v>
+        <v>92.2</v>
       </c>
       <c r="V12">
-        <v>36858</v>
+        <v>9692</v>
       </c>
       <c r="W12">
         <v>494</v>
       </c>
       <c r="X12">
+        <v>392</v>
+      </c>
+      <c r="Y12">
+        <v>258</v>
+      </c>
+      <c r="Z12">
+        <v>52.2</v>
+      </c>
+      <c r="AA12">
+        <v>-0.3</v>
+      </c>
+      <c r="AB12">
+        <v>160903</v>
+      </c>
+      <c r="AC12">
+        <v>325.7</v>
+      </c>
+      <c r="AD12">
+        <v>1766.4</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>126.5</v>
+      </c>
+      <c r="AI12">
+        <v>36858</v>
+      </c>
+      <c r="AJ12">
+        <v>494</v>
+      </c>
+      <c r="AK12">
         <v>1200.8</v>
       </c>
-      <c r="Y12">
+      <c r="AL12">
         <v>134</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>27.1</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>865603</v>
+        <v>406410</v>
       </c>
       <c r="C13">
-        <v>1822.3</v>
+        <v>855.6</v>
       </c>
       <c r="D13">
-        <v>6048.4</v>
+        <v>2508.5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1353,37 +1761,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="H13">
-        <v>1205.5</v>
+        <v>849</v>
       </c>
       <c r="I13">
-        <v>72982</v>
+        <v>43003</v>
       </c>
       <c r="J13">
         <v>475</v>
       </c>
       <c r="K13">
-        <v>2538.4</v>
+        <v>1282.1</v>
       </c>
       <c r="L13">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="M13">
-        <v>71.8</v>
+        <v>66.7</v>
       </c>
       <c r="N13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O13">
-        <v>134346</v>
+        <v>155209</v>
       </c>
       <c r="P13">
-        <v>282.8</v>
+        <v>326.8</v>
       </c>
       <c r="Q13">
-        <v>611.5</v>
+        <v>2224.1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1392,42 +1800,81 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U13">
-        <v>342.5</v>
+        <v>156</v>
       </c>
       <c r="V13">
-        <v>6047</v>
+        <v>46992</v>
       </c>
       <c r="W13">
         <v>475</v>
       </c>
       <c r="X13">
+        <v>491.2</v>
+      </c>
+      <c r="Y13">
+        <v>316</v>
+      </c>
+      <c r="Z13">
+        <v>66.5</v>
+      </c>
+      <c r="AA13">
+        <v>0.7</v>
+      </c>
+      <c r="AB13">
+        <v>134346</v>
+      </c>
+      <c r="AC13">
+        <v>282.8</v>
+      </c>
+      <c r="AD13">
+        <v>611.5</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>342.5</v>
+      </c>
+      <c r="AI13">
+        <v>6047</v>
+      </c>
+      <c r="AJ13">
+        <v>475</v>
+      </c>
+      <c r="AK13">
         <v>839.7</v>
       </c>
-      <c r="Y13">
+      <c r="AL13">
         <v>160</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>33.7</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>-0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>296290</v>
+        <v>192013</v>
       </c>
       <c r="C14">
-        <v>702.1</v>
+        <v>455</v>
       </c>
       <c r="D14">
-        <v>1647.1</v>
+        <v>886.7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1436,37 +1883,37 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>73</v>
+        <v>48.5</v>
       </c>
       <c r="H14">
-        <v>748.5</v>
+        <v>550</v>
       </c>
       <c r="I14">
-        <v>19694</v>
+        <v>8769</v>
       </c>
       <c r="J14">
         <v>422</v>
       </c>
       <c r="K14">
-        <v>1113.9</v>
+        <v>774.2</v>
       </c>
       <c r="L14">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>58.8</v>
       </c>
       <c r="N14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
-        <v>140278</v>
+        <v>50586</v>
       </c>
       <c r="P14">
-        <v>332.4</v>
+        <v>119.9</v>
       </c>
       <c r="Q14">
-        <v>1858.6</v>
+        <v>430.5</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1475,42 +1922,81 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>269.5</v>
+        <v>96</v>
       </c>
       <c r="V14">
-        <v>36948</v>
+        <v>7636</v>
       </c>
       <c r="W14">
         <v>422</v>
       </c>
       <c r="X14">
+        <v>200.7</v>
+      </c>
+      <c r="Y14">
+        <v>252</v>
+      </c>
+      <c r="Z14">
+        <v>59.7</v>
+      </c>
+      <c r="AA14">
+        <v>0.2</v>
+      </c>
+      <c r="AB14">
+        <v>140278</v>
+      </c>
+      <c r="AC14">
+        <v>332.4</v>
+      </c>
+      <c r="AD14">
+        <v>1858.6</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>269.5</v>
+      </c>
+      <c r="AI14">
+        <v>36948</v>
+      </c>
+      <c r="AJ14">
+        <v>422</v>
+      </c>
+      <c r="AK14">
         <v>1062.7</v>
       </c>
-      <c r="Y14">
+      <c r="AL14">
         <v>132</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>31.3</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>329094</v>
+        <v>97303</v>
       </c>
       <c r="C15">
-        <v>1589.8</v>
+        <v>470.1</v>
       </c>
       <c r="D15">
-        <v>4396.2</v>
+        <v>922</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1519,37 +2005,37 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>1061.5</v>
+        <v>498.5</v>
       </c>
       <c r="I15">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="J15">
         <v>207</v>
       </c>
       <c r="K15">
-        <v>2402.1</v>
+        <v>838.8</v>
       </c>
       <c r="L15">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="M15">
-        <v>66.2</v>
+        <v>56</v>
       </c>
       <c r="N15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>104876</v>
+        <v>19229</v>
       </c>
       <c r="P15">
-        <v>506.6</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Q15">
-        <v>1511.3</v>
+        <v>281.9</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1558,42 +2044,81 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>430.5</v>
+        <v>68.5</v>
       </c>
       <c r="V15">
-        <v>13336</v>
+        <v>3183</v>
       </c>
       <c r="W15">
         <v>207</v>
       </c>
       <c r="X15">
+        <v>164.4</v>
+      </c>
+      <c r="Y15">
+        <v>117</v>
+      </c>
+      <c r="Z15">
+        <v>56.5</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>104876</v>
+      </c>
+      <c r="AC15">
+        <v>506.6</v>
+      </c>
+      <c r="AD15">
+        <v>1511.3</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>430.5</v>
+      </c>
+      <c r="AI15">
+        <v>13336</v>
+      </c>
+      <c r="AJ15">
+        <v>207</v>
+      </c>
+      <c r="AK15">
         <v>1165.3</v>
       </c>
-      <c r="Y15">
+      <c r="AL15">
         <v>90</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>43.5</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>405412</v>
+        <v>160064</v>
       </c>
       <c r="C16">
-        <v>1778.1</v>
+        <v>702</v>
       </c>
       <c r="D16">
-        <v>4829.7</v>
+        <v>1834.4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1602,37 +2127,37 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>154.5</v>
+        <v>36.5</v>
       </c>
       <c r="H16">
-        <v>1455.5</v>
+        <v>886.5</v>
       </c>
       <c r="I16">
-        <v>38597</v>
+        <v>18330</v>
       </c>
       <c r="J16">
         <v>228</v>
       </c>
       <c r="K16">
-        <v>2757.9</v>
+        <v>1240.8</v>
       </c>
       <c r="L16">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M16">
-        <v>64.5</v>
+        <v>56.6</v>
       </c>
       <c r="N16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O16">
-        <v>68502</v>
+        <v>49329</v>
       </c>
       <c r="P16">
-        <v>300.4</v>
+        <v>216.4</v>
       </c>
       <c r="Q16">
-        <v>690.8</v>
+        <v>872.4</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1641,42 +2166,81 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>446.2</v>
+        <v>127.2</v>
       </c>
       <c r="V16">
-        <v>6145</v>
+        <v>11227</v>
       </c>
       <c r="W16">
         <v>228</v>
       </c>
       <c r="X16">
+        <v>368.1</v>
+      </c>
+      <c r="Y16">
+        <v>134</v>
+      </c>
+      <c r="Z16">
+        <v>58.8</v>
+      </c>
+      <c r="AA16">
+        <v>0.2</v>
+      </c>
+      <c r="AB16">
+        <v>68502</v>
+      </c>
+      <c r="AC16">
+        <v>300.4</v>
+      </c>
+      <c r="AD16">
+        <v>690.8</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>446.2</v>
+      </c>
+      <c r="AI16">
+        <v>6145</v>
+      </c>
+      <c r="AJ16">
+        <v>228</v>
+      </c>
+      <c r="AK16">
         <v>845.7</v>
       </c>
-      <c r="Y16">
+      <c r="AL16">
         <v>81</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>35.5</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>435213</v>
+        <v>205588</v>
       </c>
       <c r="C17">
-        <v>1900.5</v>
+        <v>897.8</v>
       </c>
       <c r="D17">
-        <v>4906.1</v>
+        <v>1519.3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1685,37 +2249,37 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="H17">
-        <v>1800</v>
+        <v>1182</v>
       </c>
       <c r="I17">
-        <v>52506</v>
+        <v>10957</v>
       </c>
       <c r="J17">
         <v>229</v>
       </c>
       <c r="K17">
-        <v>2807.8</v>
+        <v>1417.8</v>
       </c>
       <c r="L17">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M17">
-        <v>67.7</v>
+        <v>63.3</v>
       </c>
       <c r="N17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O17">
-        <v>107497</v>
+        <v>95728</v>
       </c>
       <c r="P17">
-        <v>469.4</v>
+        <v>418</v>
       </c>
       <c r="Q17">
-        <v>1601</v>
+        <v>1187.6</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1724,34 +2288,74 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U17">
-        <v>487</v>
+        <v>254</v>
       </c>
       <c r="V17">
-        <v>21892</v>
+        <v>12827</v>
       </c>
       <c r="W17">
         <v>229</v>
       </c>
       <c r="X17">
+        <v>646.8</v>
+      </c>
+      <c r="Y17">
+        <v>148</v>
+      </c>
+      <c r="Z17">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>0.6</v>
+      </c>
+      <c r="AB17">
+        <v>107497</v>
+      </c>
+      <c r="AC17">
+        <v>469.4</v>
+      </c>
+      <c r="AD17">
+        <v>1601</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>487</v>
+      </c>
+      <c r="AI17">
+        <v>21892</v>
+      </c>
+      <c r="AJ17">
+        <v>229</v>
+      </c>
+      <c r="AK17">
         <v>1064.3</v>
       </c>
-      <c r="Y17">
+      <c r="AL17">
         <v>101</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>44.1</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/region/museum_activity_groups__var1-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/region/museum_activity_groups__var1-region.xlsx
@@ -648,13 +648,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1479</v>
+        <v>1929</v>
       </c>
       <c r="C4">
-        <v>61.6</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D4">
-        <v>245.9</v>
+        <v>336.4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>369.8</v>
+        <v>482.2</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -687,13 +687,13 @@
         <v>-2.6</v>
       </c>
       <c r="O4">
-        <v>500</v>
+        <v>698</v>
       </c>
       <c r="P4">
-        <v>20.8</v>
+        <v>29.1</v>
       </c>
       <c r="Q4">
-        <v>91.09999999999999</v>
+        <v>131</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="W4">
         <v>24</v>
       </c>
       <c r="X4">
-        <v>125</v>
+        <v>174.5</v>
       </c>
       <c r="Y4">
         <v>4</v>
@@ -726,13 +726,13 @@
         <v>-2.6</v>
       </c>
       <c r="AB4">
-        <v>842</v>
+        <v>2285</v>
       </c>
       <c r="AC4">
-        <v>35.1</v>
+        <v>95.2</v>
       </c>
       <c r="AD4">
-        <v>132.4</v>
+        <v>250.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -744,25 +744,25 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AI4">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AJ4">
         <v>24</v>
       </c>
       <c r="AK4">
-        <v>421</v>
+        <v>380.8</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AM4">
-        <v>8.300000000000001</v>
+        <v>25</v>
       </c>
       <c r="AN4">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -770,13 +770,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>126365</v>
+        <v>142301</v>
       </c>
       <c r="C5">
-        <v>551.8</v>
+        <v>621.4</v>
       </c>
       <c r="D5">
-        <v>1514.3</v>
+        <v>1755.8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -785,37 +785,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="I5">
-        <v>17279</v>
+        <v>20844</v>
       </c>
       <c r="J5">
         <v>229</v>
       </c>
       <c r="K5">
-        <v>936</v>
+        <v>1061.9</v>
       </c>
       <c r="L5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="N5">
         <v>0.3</v>
       </c>
       <c r="O5">
-        <v>40292</v>
+        <v>45272</v>
       </c>
       <c r="P5">
-        <v>175.9</v>
+        <v>197.7</v>
       </c>
       <c r="Q5">
-        <v>640.3</v>
+        <v>775.2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -824,37 +824,37 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="V5">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="W5">
         <v>229</v>
       </c>
       <c r="X5">
-        <v>294.1</v>
+        <v>332.9</v>
       </c>
       <c r="Y5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z5">
-        <v>59.8</v>
+        <v>59.4</v>
       </c>
       <c r="AA5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB5">
-        <v>65524</v>
+        <v>122659</v>
       </c>
       <c r="AC5">
-        <v>286.1</v>
+        <v>535.6</v>
       </c>
       <c r="AD5">
-        <v>549.1</v>
+        <v>840.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -863,25 +863,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="AH5">
-        <v>368</v>
+        <v>732</v>
       </c>
       <c r="AI5">
-        <v>3252</v>
+        <v>5487</v>
       </c>
       <c r="AJ5">
         <v>229</v>
       </c>
       <c r="AK5">
-        <v>780</v>
+        <v>851.8</v>
       </c>
       <c r="AL5">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AM5">
-        <v>36.7</v>
+        <v>62.9</v>
       </c>
       <c r="AN5">
         <v>0.2</v>
@@ -892,13 +892,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>193341</v>
+        <v>227935</v>
       </c>
       <c r="C6">
-        <v>582.4</v>
+        <v>686.6</v>
       </c>
       <c r="D6">
-        <v>1260.9</v>
+        <v>1482</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -907,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H6">
-        <v>586.8</v>
+        <v>691.8</v>
       </c>
       <c r="I6">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="J6">
         <v>332</v>
       </c>
       <c r="K6">
-        <v>938.5</v>
+        <v>1117.3</v>
       </c>
       <c r="L6">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>61.4</v>
       </c>
       <c r="N6">
         <v>0.5</v>
       </c>
       <c r="O6">
-        <v>58132</v>
+        <v>67511</v>
       </c>
       <c r="P6">
-        <v>175.1</v>
+        <v>203.3</v>
       </c>
       <c r="Q6">
-        <v>562.3</v>
+        <v>643</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -946,37 +946,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U6">
-        <v>92.2</v>
+        <v>109</v>
       </c>
       <c r="V6">
-        <v>6662</v>
+        <v>7710</v>
       </c>
       <c r="W6">
         <v>332</v>
       </c>
       <c r="X6">
-        <v>280.8</v>
+        <v>329.3</v>
       </c>
       <c r="Y6">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z6">
-        <v>62.3</v>
+        <v>61.7</v>
       </c>
       <c r="AA6">
         <v>0.4</v>
       </c>
       <c r="AB6">
-        <v>69764</v>
+        <v>120225</v>
       </c>
       <c r="AC6">
-        <v>210.1</v>
+        <v>362.1</v>
       </c>
       <c r="AD6">
-        <v>542.5</v>
+        <v>518.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>120.5</v>
       </c>
       <c r="AH6">
-        <v>118.5</v>
+        <v>552.8</v>
       </c>
       <c r="AI6">
-        <v>6335</v>
+        <v>2680</v>
       </c>
       <c r="AJ6">
         <v>332</v>
       </c>
       <c r="AK6">
-        <v>734.4</v>
+        <v>589.3</v>
       </c>
       <c r="AL6">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="AM6">
-        <v>28.6</v>
+        <v>61.4</v>
       </c>
       <c r="AN6">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1014,13 +1014,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>50940</v>
+        <v>55848</v>
       </c>
       <c r="C7">
-        <v>3396</v>
+        <v>3723.2</v>
       </c>
       <c r="D7">
-        <v>12233.9</v>
+        <v>13441.8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>51.5</v>
       </c>
       <c r="I7">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
       <c r="K7">
-        <v>10188</v>
+        <v>11169.6</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1053,13 +1053,13 @@
         <v>-1.5</v>
       </c>
       <c r="O7">
-        <v>21724</v>
+        <v>25527</v>
       </c>
       <c r="P7">
-        <v>1448.3</v>
+        <v>1701.8</v>
       </c>
       <c r="Q7">
-        <v>5378.6</v>
+        <v>6341.5</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="V7">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W7">
         <v>15</v>
       </c>
       <c r="X7">
-        <v>4344.8</v>
+        <v>5105.4</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1092,13 +1092,13 @@
         <v>-1.5</v>
       </c>
       <c r="AB7">
-        <v>675</v>
+        <v>1993</v>
       </c>
       <c r="AC7">
-        <v>45</v>
+        <v>132.9</v>
       </c>
       <c r="AD7">
-        <v>174.3</v>
+        <v>305.3</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1110,25 +1110,25 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AI7">
-        <v>675</v>
+        <v>932</v>
       </c>
       <c r="AJ7">
         <v>15</v>
       </c>
       <c r="AK7">
-        <v>675</v>
+        <v>398.6</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM7">
-        <v>6.7</v>
+        <v>33.3</v>
       </c>
       <c r="AN7">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1136,13 +1136,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>325019</v>
+        <v>391544</v>
       </c>
       <c r="C8">
-        <v>1365.6</v>
+        <v>1645.1</v>
       </c>
       <c r="D8">
-        <v>2387.7</v>
+        <v>2903.6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1151,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>630</v>
+        <v>682.5</v>
       </c>
       <c r="H8">
-        <v>1702</v>
+        <v>2075.2</v>
       </c>
       <c r="I8">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="J8">
         <v>238</v>
       </c>
       <c r="K8">
-        <v>1857.3</v>
+        <v>2237.4</v>
       </c>
       <c r="L8">
         <v>175</v>
@@ -1172,16 +1172,16 @@
         <v>73.5</v>
       </c>
       <c r="N8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O8">
-        <v>197334</v>
+        <v>234175</v>
       </c>
       <c r="P8">
-        <v>829.1</v>
+        <v>983.9</v>
       </c>
       <c r="Q8">
-        <v>2385.6</v>
+        <v>2793.6</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>109</v>
+        <v>130.5</v>
       </c>
       <c r="U8">
-        <v>435</v>
+        <v>520.8</v>
       </c>
       <c r="V8">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="W8">
         <v>238</v>
       </c>
       <c r="X8">
-        <v>1114.9</v>
+        <v>1323</v>
       </c>
       <c r="Y8">
         <v>177</v>
@@ -1214,13 +1214,13 @@
         <v>1.2</v>
       </c>
       <c r="AB8">
-        <v>115657</v>
+        <v>134926</v>
       </c>
       <c r="AC8">
-        <v>486</v>
+        <v>566.9</v>
       </c>
       <c r="AD8">
-        <v>1013.1</v>
+        <v>664.2</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1229,28 +1229,28 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AH8">
-        <v>719.5</v>
+        <v>906.2</v>
       </c>
       <c r="AI8">
-        <v>8880</v>
+        <v>3465</v>
       </c>
       <c r="AJ8">
         <v>238</v>
       </c>
       <c r="AK8">
-        <v>997</v>
+        <v>771</v>
       </c>
       <c r="AL8">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="AM8">
-        <v>48.7</v>
+        <v>73.5</v>
       </c>
       <c r="AN8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1258,13 +1258,13 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>69192</v>
+        <v>83483</v>
       </c>
       <c r="C9">
-        <v>659</v>
+        <v>795.1</v>
       </c>
       <c r="D9">
-        <v>1096.4</v>
+        <v>1444.5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1273,37 +1273,37 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="H9">
-        <v>944</v>
+        <v>1079</v>
       </c>
       <c r="I9">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="J9">
         <v>105</v>
       </c>
       <c r="K9">
-        <v>1032.7</v>
+        <v>1304.4</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M9">
-        <v>63.8</v>
+        <v>61</v>
       </c>
       <c r="N9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O9">
-        <v>21116</v>
+        <v>24618</v>
       </c>
       <c r="P9">
-        <v>201.1</v>
+        <v>234.5</v>
       </c>
       <c r="Q9">
-        <v>387.2</v>
+        <v>469.6</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1312,37 +1312,37 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U9">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="V9">
-        <v>1866</v>
+        <v>2288</v>
       </c>
       <c r="W9">
         <v>105</v>
       </c>
       <c r="X9">
-        <v>301.7</v>
+        <v>367.4</v>
       </c>
       <c r="Y9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z9">
-        <v>66.7</v>
+        <v>63.8</v>
       </c>
       <c r="AA9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>35437</v>
+        <v>56545</v>
       </c>
       <c r="AC9">
-        <v>337.5</v>
+        <v>538.5</v>
       </c>
       <c r="AD9">
-        <v>490.2</v>
+        <v>643</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1351,28 +1351,28 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AH9">
-        <v>586</v>
+        <v>785</v>
       </c>
       <c r="AI9">
-        <v>1774</v>
+        <v>3251</v>
       </c>
       <c r="AJ9">
         <v>105</v>
       </c>
       <c r="AK9">
-        <v>754</v>
+        <v>785.3</v>
       </c>
       <c r="AL9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AM9">
-        <v>44.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1380,13 +1380,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>208808</v>
+        <v>247585</v>
       </c>
       <c r="C10">
-        <v>845.4</v>
+        <v>1002.4</v>
       </c>
       <c r="D10">
-        <v>1527.9</v>
+        <v>1834.4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1395,37 +1395,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="H10">
-        <v>1065</v>
+        <v>1226.5</v>
       </c>
       <c r="I10">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="J10">
         <v>247</v>
       </c>
       <c r="K10">
-        <v>1288.9</v>
+        <v>1537.8</v>
       </c>
       <c r="L10">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10">
-        <v>65.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="N10">
         <v>0.7</v>
       </c>
       <c r="O10">
-        <v>80602</v>
+        <v>96090</v>
       </c>
       <c r="P10">
-        <v>326.3</v>
+        <v>389</v>
       </c>
       <c r="Q10">
-        <v>1341.4</v>
+        <v>1665.1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1434,37 +1434,37 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U10">
-        <v>260.5</v>
+        <v>290.5</v>
       </c>
       <c r="V10">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="W10">
         <v>247</v>
       </c>
       <c r="X10">
-        <v>476.9</v>
+        <v>565.2</v>
       </c>
       <c r="Y10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z10">
-        <v>68.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AB10">
-        <v>135627</v>
+        <v>132440</v>
       </c>
       <c r="AC10">
-        <v>549.1</v>
+        <v>536.2</v>
       </c>
       <c r="AD10">
-        <v>1495.7</v>
+        <v>764.7</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1473,28 +1473,28 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AH10">
-        <v>703</v>
+        <v>841</v>
       </c>
       <c r="AI10">
-        <v>20246</v>
+        <v>5325</v>
       </c>
       <c r="AJ10">
         <v>247</v>
       </c>
       <c r="AK10">
-        <v>1027.5</v>
+        <v>783.7</v>
       </c>
       <c r="AL10">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AM10">
-        <v>53.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AN10">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1502,13 +1502,13 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>51766</v>
+        <v>66181</v>
       </c>
       <c r="C11">
-        <v>550.7</v>
+        <v>704.1</v>
       </c>
       <c r="D11">
-        <v>1742.2</v>
+        <v>2557</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1520,34 +1520,34 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>525.2</v>
+        <v>567.8</v>
       </c>
       <c r="I11">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="J11">
         <v>94</v>
       </c>
       <c r="K11">
-        <v>1150.4</v>
+        <v>1504.1</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>47.9</v>
+        <v>46.8</v>
       </c>
       <c r="N11">
         <v>-0.5</v>
       </c>
       <c r="O11">
-        <v>18156</v>
+        <v>26802</v>
       </c>
       <c r="P11">
-        <v>193.1</v>
+        <v>285.1</v>
       </c>
       <c r="Q11">
-        <v>1081.3</v>
+        <v>1828.3</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1559,34 +1559,34 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>64.8</v>
+        <v>84.5</v>
       </c>
       <c r="V11">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="W11">
         <v>94</v>
       </c>
       <c r="X11">
-        <v>422.2</v>
+        <v>638.1</v>
       </c>
       <c r="Y11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z11">
-        <v>45.7</v>
+        <v>44.7</v>
       </c>
       <c r="AA11">
         <v>-0.7</v>
       </c>
       <c r="AB11">
-        <v>46688</v>
+        <v>34350</v>
       </c>
       <c r="AC11">
-        <v>496.7</v>
+        <v>365.4</v>
       </c>
       <c r="AD11">
-        <v>1384.1</v>
+        <v>451</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1595,28 +1595,28 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AH11">
-        <v>534.8</v>
+        <v>701.5</v>
       </c>
       <c r="AI11">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AJ11">
         <v>94</v>
       </c>
       <c r="AK11">
-        <v>1506.1</v>
+        <v>648.1</v>
       </c>
       <c r="AL11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AM11">
-        <v>33</v>
+        <v>56.4</v>
       </c>
       <c r="AN11">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1624,13 +1624,13 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>315541</v>
+        <v>365975</v>
       </c>
       <c r="C12">
-        <v>638.7</v>
+        <v>740.8</v>
       </c>
       <c r="D12">
-        <v>2445.9</v>
+        <v>2684.7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1639,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>543.2</v>
+        <v>625.5</v>
       </c>
       <c r="I12">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="J12">
         <v>494</v>
       </c>
       <c r="K12">
-        <v>1247.2</v>
+        <v>1481.7</v>
       </c>
       <c r="L12">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M12">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>-0.3</v>
       </c>
       <c r="O12">
-        <v>101125</v>
+        <v>117975</v>
       </c>
       <c r="P12">
-        <v>204.7</v>
+        <v>238.8</v>
       </c>
       <c r="Q12">
-        <v>868.9</v>
+        <v>1021.5</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1678,37 +1678,37 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U12">
-        <v>92.2</v>
+        <v>107</v>
       </c>
       <c r="V12">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="W12">
         <v>494</v>
       </c>
       <c r="X12">
-        <v>392</v>
+        <v>466.3</v>
       </c>
       <c r="Y12">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z12">
-        <v>52.2</v>
+        <v>51.2</v>
       </c>
       <c r="AA12">
         <v>-0.3</v>
       </c>
       <c r="AB12">
-        <v>160903</v>
+        <v>197374</v>
       </c>
       <c r="AC12">
-        <v>325.7</v>
+        <v>399.5</v>
       </c>
       <c r="AD12">
-        <v>1766.4</v>
+        <v>743</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1717,28 +1717,28 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AH12">
-        <v>126.5</v>
+        <v>561</v>
       </c>
       <c r="AI12">
-        <v>36858</v>
+        <v>8295</v>
       </c>
       <c r="AJ12">
         <v>494</v>
       </c>
       <c r="AK12">
-        <v>1200.8</v>
+        <v>675.9</v>
       </c>
       <c r="AL12">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="AM12">
-        <v>27.1</v>
+        <v>59.1</v>
       </c>
       <c r="AN12">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1746,13 +1746,13 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>406410</v>
+        <v>486393</v>
       </c>
       <c r="C13">
-        <v>855.6</v>
+        <v>1024</v>
       </c>
       <c r="D13">
-        <v>2508.5</v>
+        <v>3138.1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1761,37 +1761,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H13">
-        <v>849</v>
+        <v>1009</v>
       </c>
       <c r="I13">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="J13">
         <v>475</v>
       </c>
       <c r="K13">
-        <v>1282.1</v>
+        <v>1549</v>
       </c>
       <c r="L13">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M13">
-        <v>66.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N13">
         <v>0.8</v>
       </c>
       <c r="O13">
-        <v>155209</v>
+        <v>175547</v>
       </c>
       <c r="P13">
-        <v>326.8</v>
+        <v>369.6</v>
       </c>
       <c r="Q13">
-        <v>2224.1</v>
+        <v>2326</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1800,37 +1800,37 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U13">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="V13">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W13">
         <v>475</v>
       </c>
       <c r="X13">
-        <v>491.2</v>
+        <v>553.8</v>
       </c>
       <c r="Y13">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z13">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="AA13">
         <v>0.7</v>
       </c>
       <c r="AB13">
-        <v>134346</v>
+        <v>194155</v>
       </c>
       <c r="AC13">
-        <v>282.8</v>
+        <v>408.7</v>
       </c>
       <c r="AD13">
-        <v>611.5</v>
+        <v>565.9</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AH13">
-        <v>342.5</v>
+        <v>626.5</v>
       </c>
       <c r="AI13">
-        <v>6047</v>
+        <v>3726</v>
       </c>
       <c r="AJ13">
         <v>475</v>
       </c>
       <c r="AK13">
-        <v>839.7</v>
+        <v>614.4</v>
       </c>
       <c r="AL13">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="AM13">
-        <v>33.7</v>
+        <v>66.5</v>
       </c>
       <c r="AN13">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1868,13 +1868,13 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>192013</v>
+        <v>226537</v>
       </c>
       <c r="C14">
-        <v>455</v>
+        <v>536.8</v>
       </c>
       <c r="D14">
-        <v>886.7</v>
+        <v>1049.3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1883,37 +1883,37 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>48.5</v>
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>550</v>
+        <v>662.8</v>
       </c>
       <c r="I14">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="J14">
         <v>422</v>
       </c>
       <c r="K14">
-        <v>774.2</v>
+        <v>909.8</v>
       </c>
       <c r="L14">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M14">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="N14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O14">
-        <v>50586</v>
+        <v>58705</v>
       </c>
       <c r="P14">
-        <v>119.9</v>
+        <v>139.1</v>
       </c>
       <c r="Q14">
-        <v>430.5</v>
+        <v>484.2</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1922,37 +1922,37 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U14">
-        <v>96</v>
+        <v>121.8</v>
       </c>
       <c r="V14">
-        <v>7636</v>
+        <v>8450</v>
       </c>
       <c r="W14">
         <v>422</v>
       </c>
       <c r="X14">
-        <v>200.7</v>
+        <v>232</v>
       </c>
       <c r="Y14">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z14">
-        <v>59.7</v>
+        <v>60</v>
       </c>
       <c r="AA14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB14">
-        <v>140278</v>
+        <v>160202</v>
       </c>
       <c r="AC14">
-        <v>332.4</v>
+        <v>379.6</v>
       </c>
       <c r="AD14">
-        <v>1858.6</v>
+        <v>577.9</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -1961,28 +1961,28 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>145.5</v>
       </c>
       <c r="AH14">
-        <v>269.5</v>
+        <v>576.2</v>
       </c>
       <c r="AI14">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AJ14">
         <v>422</v>
       </c>
       <c r="AK14">
-        <v>1062.7</v>
+        <v>568.1</v>
       </c>
       <c r="AL14">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="AM14">
-        <v>31.3</v>
+        <v>66.8</v>
       </c>
       <c r="AN14">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -1990,13 +1990,13 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>97303</v>
+        <v>115047</v>
       </c>
       <c r="C15">
-        <v>470.1</v>
+        <v>555.8</v>
       </c>
       <c r="D15">
-        <v>922</v>
+        <v>1107.7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>18</v>
       </c>
       <c r="H15">
-        <v>498.5</v>
+        <v>597.5</v>
       </c>
       <c r="I15">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="J15">
         <v>207</v>
       </c>
       <c r="K15">
-        <v>838.8</v>
+        <v>991.8</v>
       </c>
       <c r="L15">
         <v>116</v>
@@ -2026,16 +2026,16 @@
         <v>56</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O15">
-        <v>19229</v>
+        <v>22411</v>
       </c>
       <c r="P15">
-        <v>92.90000000000001</v>
+        <v>108.3</v>
       </c>
       <c r="Q15">
-        <v>281.9</v>
+        <v>346.9</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2044,37 +2044,37 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>68.5</v>
+        <v>82.5</v>
       </c>
       <c r="V15">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="W15">
         <v>207</v>
       </c>
       <c r="X15">
-        <v>164.4</v>
+        <v>193.2</v>
       </c>
       <c r="Y15">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z15">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>104876</v>
+        <v>91795</v>
       </c>
       <c r="AC15">
-        <v>506.6</v>
+        <v>443.5</v>
       </c>
       <c r="AD15">
-        <v>1511.3</v>
+        <v>675.4</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AH15">
-        <v>430.5</v>
+        <v>627</v>
       </c>
       <c r="AI15">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AJ15">
         <v>207</v>
       </c>
       <c r="AK15">
-        <v>1165.3</v>
+        <v>717.1</v>
       </c>
       <c r="AL15">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AM15">
-        <v>43.5</v>
+        <v>61.8</v>
       </c>
       <c r="AN15">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2112,13 +2112,13 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>160064</v>
+        <v>187058</v>
       </c>
       <c r="C16">
-        <v>702</v>
+        <v>820.4</v>
       </c>
       <c r="D16">
-        <v>1834.4</v>
+        <v>2205.2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2130,34 +2130,34 @@
         <v>36.5</v>
       </c>
       <c r="H16">
-        <v>886.5</v>
+        <v>982</v>
       </c>
       <c r="I16">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="J16">
         <v>228</v>
       </c>
       <c r="K16">
-        <v>1240.8</v>
+        <v>1484.6</v>
       </c>
       <c r="L16">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>56.6</v>
+        <v>55.3</v>
       </c>
       <c r="N16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>49329</v>
+        <v>57480</v>
       </c>
       <c r="P16">
-        <v>216.4</v>
+        <v>252.1</v>
       </c>
       <c r="Q16">
-        <v>872.4</v>
+        <v>1071.3</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2169,34 +2169,34 @@
         <v>7</v>
       </c>
       <c r="U16">
-        <v>127.2</v>
+        <v>141</v>
       </c>
       <c r="V16">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="W16">
         <v>228</v>
       </c>
       <c r="X16">
-        <v>368.1</v>
+        <v>432.2</v>
       </c>
       <c r="Y16">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z16">
-        <v>58.8</v>
+        <v>58.3</v>
       </c>
       <c r="AA16">
         <v>0.2</v>
       </c>
       <c r="AB16">
-        <v>68502</v>
+        <v>98664</v>
       </c>
       <c r="AC16">
-        <v>300.4</v>
+        <v>432.7</v>
       </c>
       <c r="AD16">
-        <v>690.8</v>
+        <v>635.2</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AH16">
-        <v>446.2</v>
+        <v>640</v>
       </c>
       <c r="AI16">
-        <v>6145</v>
+        <v>3366</v>
       </c>
       <c r="AJ16">
         <v>228</v>
       </c>
       <c r="AK16">
-        <v>845.7</v>
+        <v>720.2</v>
       </c>
       <c r="AL16">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AM16">
-        <v>35.5</v>
+        <v>60.1</v>
       </c>
       <c r="AN16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2234,13 +2234,13 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>205588</v>
+        <v>225132</v>
       </c>
       <c r="C17">
-        <v>897.8</v>
+        <v>983.1</v>
       </c>
       <c r="D17">
-        <v>1519.3</v>
+        <v>1699.1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2249,37 +2249,37 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="H17">
-        <v>1182</v>
+        <v>1306</v>
       </c>
       <c r="I17">
-        <v>10957</v>
+        <v>13083</v>
       </c>
       <c r="J17">
         <v>229</v>
       </c>
       <c r="K17">
-        <v>1417.8</v>
+        <v>1585.4</v>
       </c>
       <c r="L17">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M17">
-        <v>63.3</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>0.5</v>
       </c>
       <c r="O17">
-        <v>95728</v>
+        <v>101443</v>
       </c>
       <c r="P17">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="Q17">
-        <v>1187.6</v>
+        <v>1280.8</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2288,37 +2288,37 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U17">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="V17">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="W17">
         <v>229</v>
       </c>
       <c r="X17">
-        <v>646.8</v>
+        <v>699.6</v>
       </c>
       <c r="Y17">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Z17">
-        <v>64.59999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="AA17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB17">
-        <v>107497</v>
+        <v>117073</v>
       </c>
       <c r="AC17">
-        <v>469.4</v>
+        <v>511.2</v>
       </c>
       <c r="AD17">
-        <v>1601</v>
+        <v>674.8</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2327,25 +2327,25 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="AH17">
-        <v>487</v>
+        <v>773</v>
       </c>
       <c r="AI17">
-        <v>21892</v>
+        <v>4105</v>
       </c>
       <c r="AJ17">
         <v>229</v>
       </c>
       <c r="AK17">
-        <v>1064.3</v>
+        <v>736.3</v>
       </c>
       <c r="AL17">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="AM17">
-        <v>44.1</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AN17">
         <v>0.7</v>
